--- a/data/trans_bre/P1803_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-0.4262706667728815</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.6034053197368925</v>
+        <v>-0.6034053197368932</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.08134598297050906</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.1072076013126198</v>
+        <v>-0.1072076013126199</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.609949196472436</v>
+        <v>-3.717309146451186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.054603296222595</v>
+        <v>-5.678124467233999</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.5159196730980855</v>
+        <v>-0.5336045572254898</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.708213312037268</v>
+        <v>-0.6927935725216869</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.678316833431257</v>
+        <v>2.681643820655631</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.46444059728334</v>
+        <v>3.946464545699704</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7439294281771447</v>
+        <v>0.7660742394950397</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.615002438419532</v>
+        <v>1.230687641792399</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>2.621805680160508</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.28644348519185</v>
+        <v>2.286443485191851</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5825470113703737</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3081291766668485</v>
+        <v>0.3081291766668487</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2162645718520484</v>
+        <v>0.1018576061191224</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.115424455284893</v>
+        <v>-2.16296131893087</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04923051240782252</v>
+        <v>-0.00276059441094343</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2356192922384438</v>
+        <v>-0.2309182291397434</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.157951749579456</v>
+        <v>5.423404500911659</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.920756416728992</v>
+        <v>6.619862361763921</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.57112422113964</v>
+        <v>1.634135903993926</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.120959564012919</v>
+        <v>1.298113922673605</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-1.496663328818864</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.14002703168086</v>
+        <v>-1.140027031680861</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.2494987858435141</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1024638717768994</v>
+        <v>-0.1024638717768995</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.085950892214494</v>
+        <v>-4.134778136916103</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.560444045950806</v>
+        <v>-5.014925437088856</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.559953870807828</v>
+        <v>-0.5340608703660259</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3393049027276558</v>
+        <v>-0.3571510806803909</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.081388314526949</v>
+        <v>1.008065110730622</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.066049373832965</v>
+        <v>1.79103475595052</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.2741797061493872</v>
+        <v>0.2065455983190273</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.243819229654841</v>
+        <v>0.2024925500013161</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.918786985957276</v>
+        <v>-2.136290554796059</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.067458541096529</v>
+        <v>-1.898168654264795</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3309180195578686</v>
+        <v>-0.3378493633307629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1691488542598465</v>
+        <v>-0.1519298018748984</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.036649819868177</v>
+        <v>2.961926001049365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.949976503039502</v>
+        <v>4.165173773167759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8993845712250729</v>
+        <v>0.8062059358147051</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4902099987961658</v>
+        <v>0.495561745582041</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>1.627259092297503</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.525382034466371</v>
+        <v>5.525382034466377</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.3488769617222016</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.7322804567010587</v>
+        <v>0.7322804567010595</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.421312149541385</v>
+        <v>-1.518496384127256</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.465249906770836</v>
+        <v>2.363981280022114</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.2821224770012585</v>
+        <v>-0.287380253121931</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.2444901966616111</v>
+        <v>0.2361349733459212</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.883108585751082</v>
+        <v>4.954370782925009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.47744469214841</v>
+        <v>8.297424783953435</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.413204219178698</v>
+        <v>1.409313140427624</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.378043020857215</v>
+        <v>1.385116496523211</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>4.915550524167634</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4.528238266406702</v>
+        <v>4.5282382664067</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2.393715614691599</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.7089407978022548</v>
+        <v>0.7089407978022546</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.8302667969406</v>
+        <v>1.83063995845187</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.676059953200232</v>
+        <v>1.272569325201549</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4517585569588103</v>
+        <v>0.3406577124284392</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.217435322971909</v>
+        <v>0.1587397248980444</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.274392234300201</v>
+        <v>8.510468833073478</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.510517949632312</v>
+        <v>7.518575419748924</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>8.134814663156305</v>
+        <v>8.176861294904299</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.534463786650577</v>
+        <v>1.506371079711838</v>
       </c>
     </row>
     <row r="22">
@@ -976,7 +976,7 @@
         <v>1.154572284549005</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.497425556209994</v>
+        <v>3.497425556209995</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.4439933923075752</v>
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.394990280353815</v>
+        <v>-1.451118724182372</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.689931387174167</v>
+        <v>0.7902440614681415</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.4197893117202458</v>
+        <v>-0.442842358585571</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1386148935173871</v>
+        <v>0.1331770687236942</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.05287796076204</v>
+        <v>3.778036842884295</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.825859721474398</v>
+        <v>5.869596584222617</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>2.894253826964305</v>
+        <v>2.465737787189749</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3.046437580949398</v>
+        <v>2.924051613183426</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1649449451590694</v>
+        <v>-0.1918300808542791</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5921675353206577</v>
+        <v>0.6067651867451287</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03102214318755712</v>
+        <v>-0.03926969904200549</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06703261477596564</v>
+        <v>0.06984045692526956</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.104261287433074</v>
+        <v>1.923496995952959</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.268136054407182</v>
+        <v>3.292458642381537</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5296284762389276</v>
+        <v>0.4675565394127648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4608550226798991</v>
+        <v>0.466163795152738</v>
       </c>
     </row>
     <row r="28">
